--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -429,6 +444,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -514,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -526,6 +544,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -547,265 +566,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -827,2145 +888,2469 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
@@ -532,14 +526,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
@@ -636,18 +630,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -664,13 +658,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -687,13 +681,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -710,13 +704,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -733,10 +727,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -756,10 +750,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -779,10 +773,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -802,10 +796,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -825,108 +819,108 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -935,21 +929,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
@@ -958,44 +952,44 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>41</v>
@@ -1004,44 +998,44 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>46</v>
@@ -1050,21 +1044,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>48</v>
@@ -1073,21 +1067,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>50</v>
@@ -1096,21 +1090,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>52</v>
@@ -1119,21 +1113,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>54</v>
@@ -1142,21 +1136,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>56</v>
@@ -1165,12 +1159,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
@@ -1179,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>58</v>
@@ -1188,12 +1182,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>59</v>
@@ -1202,7 +1196,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>60</v>
@@ -1211,12 +1205,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>61</v>
@@ -1225,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>62</v>
@@ -1234,21 +1228,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>64</v>
@@ -1257,21 +1251,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>66</v>
@@ -1280,21 +1274,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
@@ -1303,21 +1297,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>70</v>
@@ -1326,21 +1320,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>72</v>
@@ -1349,12 +1343,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>73</v>
@@ -1363,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>74</v>
@@ -1372,12 +1366,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>75</v>
@@ -1386,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>76</v>
@@ -1395,12 +1389,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>77</v>
@@ -1409,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>78</v>
@@ -1418,12 +1412,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>79</v>
@@ -1432,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>80</v>
@@ -1441,21 +1435,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>82</v>
@@ -1464,21 +1458,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>84</v>
@@ -1487,21 +1481,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>86</v>
@@ -1510,90 +1504,90 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>48</v>
@@ -1602,21 +1596,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>50</v>
@@ -1625,21 +1619,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>52</v>
@@ -1648,21 +1642,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>54</v>
@@ -1671,21 +1665,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>56</v>
@@ -1694,12 +1688,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>57</v>
@@ -1708,21 +1702,21 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>59</v>
@@ -1731,21 +1725,21 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>61</v>
@@ -1754,53 +1748,53 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>66</v>
@@ -1809,21 +1803,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>68</v>
@@ -1832,21 +1826,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>70</v>
@@ -1855,21 +1849,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>72</v>
@@ -1878,12 +1872,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>73</v>
@@ -1892,21 +1886,21 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>75</v>
@@ -1915,21 +1909,21 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>77</v>
@@ -1938,21 +1932,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>79</v>
@@ -1961,53 +1955,53 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>84</v>
@@ -2016,21 +2010,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>86</v>
@@ -2039,44 +2033,44 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>46</v>
@@ -2085,44 +2079,44 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>99</v>
@@ -2131,44 +2125,44 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>50</v>
@@ -2177,44 +2171,44 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>103</v>
@@ -2223,44 +2217,44 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>54</v>
@@ -2269,21 +2263,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>56</v>
@@ -2292,21 +2286,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>58</v>
@@ -2315,21 +2309,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>60</v>
@@ -2338,12 +2332,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>61</v>
@@ -2352,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>62</v>
@@ -2361,15 +2355,15 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2378,18 +2372,18 @@
         <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>108</v>
@@ -2398,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>109</v>
@@ -2407,12 +2401,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>110</v>
@@ -2421,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>111</v>
@@ -2430,67 +2424,67 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>120</v>
@@ -2499,21 +2493,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>122</v>
@@ -2522,21 +2516,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>124</v>
@@ -2545,21 +2539,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>126</v>
@@ -2568,21 +2562,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>128</v>
@@ -2591,127 +2585,127 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>137</v>
@@ -2720,76 +2714,76 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>48</v>
@@ -2798,21 +2792,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>50</v>
@@ -2821,21 +2815,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>52</v>
@@ -2844,21 +2838,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>54</v>
@@ -2867,21 +2861,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>56</v>
@@ -2890,12 +2884,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>57</v>
@@ -2904,21 +2898,21 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>59</v>
@@ -2927,21 +2921,21 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>61</v>
@@ -2950,53 +2944,53 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>66</v>
@@ -3005,21 +2999,21 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>68</v>
@@ -3028,21 +3022,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>70</v>
@@ -3051,21 +3045,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>72</v>
@@ -3074,12 +3068,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>73</v>
@@ -3088,21 +3082,21 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>75</v>
@@ -3111,21 +3105,21 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>77</v>
@@ -3134,21 +3128,21 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>79</v>
@@ -3157,53 +3151,53 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>84</v>
@@ -3212,21 +3206,21 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>86</v>
@@ -3235,90 +3229,90 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>151</v>
@@ -3327,30 +3321,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,64 +32,67 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>43.1</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -860,2468 +863,2468 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
@@ -443,7 +443,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -541,7 +541,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -206,6 +206,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -416,22 +422,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1242,7 +1248,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>44</v>
@@ -1334,7 +1340,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
@@ -1449,7 +1455,7 @@
         <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>44</v>
@@ -1521,10 +1527,10 @@
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1535,22 +1541,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>31</v>
@@ -1558,22 +1564,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>31</v>
@@ -1581,19 +1587,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1610,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1633,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1656,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1679,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1696,22 +1702,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>31</v>
@@ -1719,22 +1725,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>31</v>
@@ -1742,22 +1748,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>31</v>
@@ -1765,22 +1771,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>31</v>
@@ -1788,22 +1794,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1880,22 +1886,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>31</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
@@ -1949,22 +1955,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>31</v>
@@ -1972,22 +1978,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>31</v>
@@ -1995,22 +2001,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>31</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2087,10 +2093,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2099,7 +2105,7 @@
         <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2179,10 +2185,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
@@ -2191,7 +2197,7 @@
         <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2202,10 +2208,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
@@ -2214,7 +2220,7 @@
         <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2248,7 +2254,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>105</v>
@@ -2257,10 +2263,10 @@
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2346,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2363,10 +2369,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2375,7 +2381,7 @@
         <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2386,10 +2392,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2398,7 +2404,7 @@
         <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2415,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2599,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2622,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2685,22 +2691,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>31</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>19</v>
@@ -2731,599 +2737,668 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -449,7 +449,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -547,7 +550,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3292,7 +3295,7 @@
         <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
@@ -3312,10 +3315,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -3324,7 +3327,7 @@
         <v>91</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3335,10 +3338,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3347,7 +3350,7 @@
         <v>91</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>21</v>
@@ -3358,10 +3361,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3370,7 +3373,7 @@
         <v>29</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3381,10 +3384,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3393,7 +3396,7 @@
         <v>99</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3295,7 +3292,7 @@
         <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
@@ -3315,10 +3312,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -3327,7 +3324,7 @@
         <v>91</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3338,10 +3335,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3350,7 +3347,7 @@
         <v>91</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>21</v>
@@ -3361,10 +3358,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3373,7 +3370,7 @@
         <v>29</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3384,10 +3381,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3396,7 +3393,7 @@
         <v>99</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3292,7 +3295,7 @@
         <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
@@ -3312,10 +3315,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -3324,7 +3327,7 @@
         <v>91</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3335,10 +3338,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3347,7 +3350,7 @@
         <v>91</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>21</v>
@@ -3358,10 +3361,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3370,7 +3373,7 @@
         <v>29</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3381,10 +3384,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3393,7 +3396,7 @@
         <v>99</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,36 @@
   </si>
   <si>
     <t>43.1,31</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -538,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -548,7 +578,7 @@
     <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2096,19 +2126,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2119,22 +2149,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2142,19 +2172,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2165,22 +2195,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>31</v>
@@ -2188,22 +2218,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2211,19 +2241,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2264,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2287,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2310,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2333,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2356,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2379,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2402,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2425,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2448,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2471,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2494,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2517,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2540,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2563,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2586,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2609,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2632,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2655,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2678,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2701,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2724,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2717,22 +2747,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>31</v>
@@ -2740,22 +2770,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2763,19 +2793,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2786,622 +2816,829 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -2569,7 +2569,7 @@
         <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>109</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -212,13 +218,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -568,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1097,7 +1103,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>44</v>
@@ -1189,7 +1195,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>44</v>
@@ -1304,7 +1310,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>44</v>
@@ -1327,7 +1333,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>44</v>
@@ -1396,7 +1402,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -1511,7 +1517,7 @@
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>44</v>
@@ -1583,10 +1589,10 @@
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1597,22 +1603,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>31</v>
@@ -1620,22 +1626,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>31</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1695,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1741,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1758,22 +1764,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>31</v>
@@ -1781,19 +1787,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1810,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>18</v>
@@ -1827,22 +1833,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1850,22 +1856,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1873,22 +1879,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>31</v>
@@ -1896,19 +1902,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1948,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1965,22 +1971,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
@@ -1988,19 +1994,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2017,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
@@ -2034,22 +2040,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>31</v>
@@ -2057,22 +2063,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>31</v>
@@ -2080,22 +2086,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>31</v>
@@ -2103,19 +2109,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2132,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2149,22 +2155,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2172,19 +2178,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2201,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>18</v>
@@ -2218,22 +2224,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2241,22 +2247,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>31</v>
@@ -2264,22 +2270,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2287,10 +2293,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2299,7 +2305,7 @@
         <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2316,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2339,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2362,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2385,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2402,10 +2408,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
@@ -2414,7 +2420,7 @@
         <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2425,7 +2431,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>52</v>
@@ -2434,7 +2440,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>53</v>
@@ -2448,19 +2454,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2477,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2500,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2523,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2546,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2569,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2592,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2615,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2638,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2661,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2678,10 +2684,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2690,7 +2696,7 @@
         <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2701,10 +2707,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2713,7 +2719,7 @@
         <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2730,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2753,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2776,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2799,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2822,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2845,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2868,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2891,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2914,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2937,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2954,22 +2960,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>31</v>
@@ -2977,22 +2983,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>31</v>
@@ -3000,19 +3006,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3023,622 +3029,714 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B133" s="2" t="s">
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="170">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -574,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1379,7 +1385,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
@@ -1402,7 +1408,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -1540,7 +1546,7 @@
         <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>44</v>
@@ -1612,10 +1618,10 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1626,22 +1632,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>31</v>
@@ -1649,22 +1655,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>31</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1701,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1747,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1793,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1810,22 +1816,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>31</v>
@@ -1833,22 +1839,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1856,22 +1862,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>18</v>
@@ -1902,22 +1908,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>31</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1954,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1971,22 +1977,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
@@ -1994,19 +2000,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>18</v>
@@ -2086,22 +2092,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>31</v>
@@ -2109,22 +2115,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2132,22 +2138,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2184,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2201,22 +2207,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>31</v>
@@ -2224,19 +2230,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2253,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
@@ -2270,22 +2276,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2293,22 +2299,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -2316,22 +2322,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -2339,10 +2345,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2351,7 +2357,7 @@
         <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2391,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2414,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2437,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2454,10 +2460,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
@@ -2466,7 +2472,7 @@
         <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2477,10 +2483,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
@@ -2489,7 +2495,7 @@
         <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2506,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2523,7 +2529,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>119</v>
@@ -2532,10 +2538,10 @@
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2552,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2575,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2598,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2621,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2644,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2690,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2713,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2736,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2753,10 +2759,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2765,7 +2771,7 @@
         <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2776,10 +2782,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2788,7 +2794,7 @@
         <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2822,19 +2828,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2845,19 +2851,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2868,19 +2874,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2891,19 +2897,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2914,19 +2920,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2937,19 +2943,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2966,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2983,19 +2989,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3006,19 +3012,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3029,22 +3035,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>31</v>
@@ -3052,22 +3058,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>31</v>
@@ -3075,22 +3081,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>31</v>
@@ -3098,645 +3104,714 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G133" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -580,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1569,7 +1575,7 @@
         <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>44</v>
@@ -1641,10 +1647,10 @@
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1655,22 +1661,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>31</v>
@@ -1678,22 +1684,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>31</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1753,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1776,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1799,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1822,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1839,22 +1845,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1862,22 +1868,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1885,22 +1891,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>31</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>18</v>
@@ -1931,22 +1937,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>31</v>
@@ -1954,19 +1960,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1977,22 +1983,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
@@ -2000,22 +2006,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>31</v>
@@ -2023,19 +2029,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
@@ -2046,19 +2052,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2075,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>18</v>
@@ -2092,19 +2098,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2121,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>18</v>
@@ -2138,22 +2144,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2161,22 +2167,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2184,22 +2190,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>31</v>
@@ -2207,19 +2213,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2253,22 +2259,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>31</v>
@@ -2276,19 +2282,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2305,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>18</v>
@@ -2322,22 +2328,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -2345,22 +2351,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -2368,22 +2374,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>31</v>
@@ -2391,10 +2397,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2403,7 +2409,7 @@
         <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2443,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2460,19 +2466,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2483,19 +2489,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2506,10 +2512,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
@@ -2518,7 +2524,7 @@
         <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2529,10 +2535,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
@@ -2541,7 +2547,7 @@
         <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2558,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2575,7 +2581,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>121</v>
@@ -2584,10 +2590,10 @@
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2604,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2627,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2650,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2673,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2696,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2719,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2742,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2759,19 +2765,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2788,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2805,10 +2811,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2817,7 +2823,7 @@
         <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2828,10 +2834,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2840,7 +2846,7 @@
         <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2857,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2880,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2903,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2920,19 +2926,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2943,19 +2949,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2966,19 +2972,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2989,19 +2995,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3012,19 +3018,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3041,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3064,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3081,22 +3087,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>31</v>
@@ -3104,22 +3110,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>31</v>
@@ -3127,22 +3133,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>31</v>
@@ -3150,668 +3156,737 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G136" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="209">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,6 +56,12 @@
     <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -128,6 +134,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
@@ -212,9 +308,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -311,6 +404,15 @@
     <t>titoloDichiarante</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -350,6 +452,15 @@
     <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Soggetto</t>
   </si>
   <si>
@@ -359,9 +470,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -500,9 +608,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -528,6 +633,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -586,14 +697,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -690,18 +801,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -718,13 +829,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -741,13 +852,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -764,13 +875,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -787,10 +898,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -810,10 +921,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -833,10 +944,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -856,10 +967,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -879,10 +990,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -901,86 +1012,86 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
@@ -989,21 +1100,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>37</v>
@@ -1012,2882 +1123,4538 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="209">
   <si>
     <t>Sezione</t>
   </si>
@@ -697,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2442,7 +2442,7 @@
         <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2451,7 +2451,7 @@
         <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2465,7 +2465,7 @@
         <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2474,7 +2474,7 @@
         <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2488,7 +2488,7 @@
         <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2497,7 +2497,7 @@
         <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2511,7 +2511,7 @@
         <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2520,7 +2520,7 @@
         <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2534,7 +2534,7 @@
         <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2543,7 +2543,7 @@
         <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2557,7 +2557,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2566,7 +2566,7 @@
         <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2580,7 +2580,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2589,7 +2589,7 @@
         <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2603,7 +2603,7 @@
         <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2612,7 +2612,7 @@
         <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2626,7 +2626,7 @@
         <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2635,7 +2635,7 @@
         <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2649,7 +2649,7 @@
         <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2658,7 +2658,7 @@
         <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2672,7 +2672,7 @@
         <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2681,7 +2681,7 @@
         <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2692,25 +2692,25 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -2718,19 +2718,19 @@
         <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2741,16 +2741,16 @@
         <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2764,16 +2764,16 @@
         <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2787,7 +2787,7 @@
         <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
@@ -2796,7 +2796,7 @@
         <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2810,7 +2810,7 @@
         <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
@@ -2819,7 +2819,7 @@
         <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2833,7 +2833,7 @@
         <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
@@ -2842,7 +2842,7 @@
         <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2856,16 +2856,16 @@
         <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2879,7 +2879,7 @@
         <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2888,10 +2888,10 @@
         <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2902,7 +2902,7 @@
         <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2911,10 +2911,10 @@
         <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2925,7 +2925,7 @@
         <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2934,10 +2934,10 @@
         <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2948,7 +2948,7 @@
         <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2957,7 +2957,7 @@
         <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
@@ -2971,19 +2971,19 @@
         <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2994,7 +2994,7 @@
         <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>19</v>
@@ -3003,7 +3003,7 @@
         <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3017,19 @@
         <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -3040,7 +3040,7 @@
         <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3049,7 +3049,7 @@
         <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>20</v>
@@ -3063,7 +3063,7 @@
         <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3072,10 +3072,10 @@
         <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -3086,7 +3086,7 @@
         <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3095,10 +3095,10 @@
         <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -3109,7 +3109,7 @@
         <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3118,10 +3118,10 @@
         <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -3132,7 +3132,7 @@
         <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3141,10 +3141,10 @@
         <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3155,7 +3155,7 @@
         <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3164,10 +3164,10 @@
         <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3178,7 +3178,7 @@
         <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3187,10 +3187,10 @@
         <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3201,7 +3201,7 @@
         <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3210,7 +3210,7 @@
         <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>20</v>
@@ -3224,19 +3224,19 @@
         <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3247,7 +3247,7 @@
         <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
@@ -3256,7 +3256,7 @@
         <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3270,7 +3270,7 @@
         <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
@@ -3279,7 +3279,7 @@
         <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3293,16 +3293,16 @@
         <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3316,7 +3316,7 @@
         <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3325,10 +3325,10 @@
         <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -3339,7 +3339,7 @@
         <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3348,10 +3348,10 @@
         <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3362,7 +3362,7 @@
         <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3371,10 +3371,10 @@
         <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3385,7 +3385,7 @@
         <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3394,7 +3394,7 @@
         <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>20</v>
@@ -3405,25 +3405,25 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
@@ -3431,16 +3431,16 @@
         <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3454,16 +3454,16 @@
         <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3477,16 +3477,16 @@
         <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3500,7 +3500,7 @@
         <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>19</v>
@@ -3509,7 +3509,7 @@
         <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3523,7 +3523,7 @@
         <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
@@ -3532,7 +3532,7 @@
         <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3546,7 +3546,7 @@
         <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>19</v>
@@ -3555,7 +3555,7 @@
         <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3569,16 +3569,16 @@
         <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3592,7 +3592,7 @@
         <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3601,7 +3601,7 @@
         <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3615,7 +3615,7 @@
         <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3624,7 +3624,7 @@
         <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3638,7 +3638,7 @@
         <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3647,7 +3647,7 @@
         <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3661,7 +3661,7 @@
         <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3670,7 +3670,7 @@
         <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3684,16 +3684,16 @@
         <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3707,7 +3707,7 @@
         <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
@@ -3716,7 +3716,7 @@
         <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3730,16 +3730,16 @@
         <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3753,7 +3753,7 @@
         <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3762,7 +3762,7 @@
         <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3776,7 +3776,7 @@
         <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3785,7 +3785,7 @@
         <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3799,7 +3799,7 @@
         <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3808,7 +3808,7 @@
         <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3822,7 +3822,7 @@
         <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3831,7 +3831,7 @@
         <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3845,7 +3845,7 @@
         <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3854,7 +3854,7 @@
         <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3868,7 +3868,7 @@
         <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3877,7 +3877,7 @@
         <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3891,7 +3891,7 @@
         <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3900,7 +3900,7 @@
         <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3914,7 +3914,7 @@
         <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3923,7 +3923,7 @@
         <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3937,16 +3937,16 @@
         <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3960,7 +3960,7 @@
         <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>19</v>
@@ -3969,7 +3969,7 @@
         <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3983,7 +3983,7 @@
         <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
@@ -3992,7 +3992,7 @@
         <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4006,16 +4006,16 @@
         <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4029,7 +4029,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4038,7 +4038,7 @@
         <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4052,7 +4052,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4061,7 +4061,7 @@
         <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4075,7 +4075,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4084,7 +4084,7 @@
         <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4098,7 +4098,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4107,7 +4107,7 @@
         <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4118,25 +4118,25 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
@@ -4144,16 +4144,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4167,16 +4167,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4190,7 +4190,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4199,7 +4199,7 @@
         <v>64</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4213,16 +4213,16 @@
         <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4236,16 +4236,16 @@
         <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4259,7 +4259,7 @@
         <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>19</v>
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4282,16 +4282,16 @@
         <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4305,7 +4305,7 @@
         <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>19</v>
@@ -4314,7 +4314,7 @@
         <v>64</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4328,16 +4328,16 @@
         <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4351,7 +4351,7 @@
         <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>19</v>
@@ -4360,7 +4360,7 @@
         <v>150</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4374,16 +4374,16 @@
         <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4397,7 +4397,7 @@
         <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4406,7 +4406,7 @@
         <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4420,7 +4420,7 @@
         <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4429,7 +4429,7 @@
         <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4443,7 +4443,7 @@
         <v>149</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4452,7 +4452,7 @@
         <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4466,16 +4466,16 @@
         <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4489,16 +4489,16 @@
         <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4512,7 +4512,7 @@
         <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4521,7 +4521,7 @@
         <v>150</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4535,7 +4535,7 @@
         <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4544,7 +4544,7 @@
         <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4558,7 +4558,7 @@
         <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4567,7 +4567,7 @@
         <v>150</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4581,16 +4581,16 @@
         <v>149</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4604,7 +4604,7 @@
         <v>149</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4613,7 +4613,7 @@
         <v>64</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4624,19 +4624,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4650,16 +4650,16 @@
         <v>167</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4673,16 +4673,16 @@
         <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4696,7 +4696,7 @@
         <v>167</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>19</v>
@@ -4705,7 +4705,7 @@
         <v>172</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4719,7 +4719,7 @@
         <v>167</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>19</v>
@@ -4728,7 +4728,7 @@
         <v>172</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4742,7 +4742,7 @@
         <v>167</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>19</v>
@@ -4751,7 +4751,7 @@
         <v>172</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4765,7 +4765,7 @@
         <v>167</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>19</v>
@@ -4774,7 +4774,7 @@
         <v>172</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4788,7 +4788,7 @@
         <v>167</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>19</v>
@@ -4797,7 +4797,7 @@
         <v>172</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4811,7 +4811,7 @@
         <v>167</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>19</v>
@@ -4820,7 +4820,7 @@
         <v>172</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4834,7 +4834,7 @@
         <v>167</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>19</v>
@@ -4843,7 +4843,7 @@
         <v>172</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4857,19 +4857,19 @@
         <v>167</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>33</v>
@@ -4880,7 +4880,7 @@
         <v>167</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4889,7 +4889,7 @@
         <v>172</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>21</v>
@@ -4903,19 +4903,19 @@
         <v>167</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>33</v>
@@ -4923,25 +4923,25 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185">
@@ -4949,19 +4949,19 @@
         <v>194</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>197</v>
@@ -4972,16 +4972,16 @@
         <v>194</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4995,16 +4995,16 @@
         <v>194</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5018,7 +5018,7 @@
         <v>194</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>19</v>
@@ -5027,7 +5027,7 @@
         <v>195</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5041,7 +5041,7 @@
         <v>194</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>19</v>
@@ -5050,7 +5050,7 @@
         <v>195</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5064,7 +5064,7 @@
         <v>194</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>19</v>
@@ -5073,7 +5073,7 @@
         <v>195</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5087,16 +5087,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5110,7 +5110,7 @@
         <v>194</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5119,10 +5119,10 @@
         <v>195</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>197</v>
@@ -5133,7 +5133,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5142,10 +5142,10 @@
         <v>195</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>197</v>
@@ -5156,7 +5156,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5165,10 +5165,10 @@
         <v>195</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>197</v>
@@ -5179,7 +5179,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5188,7 +5188,7 @@
         <v>195</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>196</v>
@@ -5202,19 +5202,19 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>197</v>
@@ -5225,7 +5225,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>19</v>
@@ -5234,7 +5234,7 @@
         <v>195</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5248,19 +5248,19 @@
         <v>194</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>197</v>
@@ -5271,7 +5271,7 @@
         <v>194</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5280,7 +5280,7 @@
         <v>195</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>196</v>
@@ -5294,7 +5294,7 @@
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5303,10 +5303,10 @@
         <v>195</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>197</v>
@@ -5317,7 +5317,7 @@
         <v>194</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5326,10 +5326,10 @@
         <v>195</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>197</v>
@@ -5340,7 +5340,7 @@
         <v>194</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5349,10 +5349,10 @@
         <v>195</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>197</v>
@@ -5363,7 +5363,7 @@
         <v>194</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5372,10 +5372,10 @@
         <v>195</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>197</v>
@@ -5386,7 +5386,7 @@
         <v>194</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5395,10 +5395,10 @@
         <v>195</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>197</v>
@@ -5409,7 +5409,7 @@
         <v>194</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5418,10 +5418,10 @@
         <v>195</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>197</v>
@@ -5432,7 +5432,7 @@
         <v>194</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5441,7 +5441,7 @@
         <v>195</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>196</v>
@@ -5455,19 +5455,19 @@
         <v>194</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>197</v>
@@ -5478,7 +5478,7 @@
         <v>194</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>19</v>
@@ -5487,7 +5487,7 @@
         <v>195</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5501,7 +5501,7 @@
         <v>194</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>19</v>
@@ -5510,7 +5510,7 @@
         <v>195</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5521,25 +5521,25 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
     </row>
     <row r="211">
@@ -5547,19 +5547,19 @@
         <v>198</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>33</v>
@@ -5570,19 +5570,19 @@
         <v>198</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>33</v>
@@ -5593,16 +5593,16 @@
         <v>198</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5616,44 +5616,21 @@
         <v>198</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="211">
   <si>
     <t>Sezione</t>
   </si>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -697,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1801,7 +1807,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>76</v>
@@ -4906,7 +4912,7 @@
         <v>192</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>172</v>
@@ -4915,7 +4921,7 @@
         <v>193</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>33</v>
@@ -4923,634 +4929,634 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F184" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>128</v>
@@ -5559,7 +5565,7 @@
         <v>202</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>33</v>
@@ -5567,22 +5573,22 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>33</v>
@@ -5590,7 +5596,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>205</v>
@@ -5599,7 +5605,7 @@
         <v>19</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>206</v>
@@ -5613,16 +5619,16 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>208</v>
@@ -5631,6 +5637,29 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -5234,7 +5234,7 @@
         <v>99</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>197</v>
@@ -5257,7 +5257,7 @@
         <v>101</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>197</v>
@@ -5266,7 +5266,7 @@
         <v>102</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>199</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_066.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="215">
   <si>
     <t>Sezione</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -703,7 +715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1600,7 +1612,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>76</v>
@@ -1623,7 +1635,7 @@
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>76</v>
@@ -1669,7 +1681,7 @@
         <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>76</v>
@@ -1692,7 +1704,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>76</v>
@@ -1758,7 +1770,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1767,7 +1779,7 @@
         <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1781,7 +1793,7 @@
         <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1790,7 +1802,7 @@
         <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1804,7 +1816,7 @@
         <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -2037,7 +2049,7 @@
         <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>76</v>
@@ -2060,7 +2072,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>76</v>
@@ -2109,10 +2121,10 @@
         <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2123,65 +2135,65 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2204,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2227,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2250,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2273,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2296,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2319,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2342,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2365,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2388,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2411,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2434,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2457,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2480,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2503,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2526,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2549,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2572,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2595,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2618,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2641,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2664,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2687,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2698,114 +2710,114 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2813,19 +2825,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2836,19 +2848,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2871,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2882,22 +2894,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2905,22 +2917,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2928,22 +2940,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2951,22 +2963,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2974,19 +2986,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3009,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3032,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
@@ -3043,22 +3055,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -3066,22 +3078,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -3089,19 +3101,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>20</v>
@@ -3112,19 +3124,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3135,22 +3147,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3158,22 +3170,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3181,19 +3193,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3204,22 +3216,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>33</v>
@@ -3227,22 +3239,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3250,19 +3262,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3273,22 +3285,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>33</v>
@@ -3296,19 +3308,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3319,19 +3331,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>20</v>
@@ -3342,22 +3354,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3365,22 +3377,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3388,22 +3400,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>33</v>
@@ -3411,916 +3423,916 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4331,19 +4343,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4354,19 +4366,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4377,19 +4389,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4400,19 +4412,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4423,19 +4435,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4446,19 +4458,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4469,10 +4481,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>19</v>
@@ -4481,7 +4493,7 @@
         <v>64</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4492,19 +4504,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4515,19 +4527,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4538,19 +4550,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4561,19 +4573,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4584,19 +4596,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4607,19 +4619,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4630,19 +4642,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4653,19 +4665,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4676,19 +4688,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4699,19 +4711,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4722,19 +4734,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4745,19 +4757,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4768,19 +4780,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4791,19 +4803,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4814,19 +4826,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4837,19 +4849,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4860,22 +4872,22 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>33</v>
@@ -4883,22 +4895,22 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>33</v>
@@ -4906,22 +4918,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>33</v>
@@ -4929,19 +4941,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4952,600 +4964,600 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C191" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211">
@@ -5553,22 +5565,22 @@
         <v>200</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212">
@@ -5576,22 +5588,22 @@
         <v>200</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="213">
@@ -5599,22 +5611,22 @@
         <v>200</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214">
@@ -5622,22 +5634,22 @@
         <v>200</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
     </row>
     <row r="215">
@@ -5645,21 +5657,251 @@
         <v>200</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="C223" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>33</v>
       </c>
     </row>
